--- a/mcmaster_excel/Stainless_Steel_Pan_Head_Torx_Screws.xlsx
+++ b/mcmaster_excel/Stainless_Steel_Pan_Head_Torx_Screws.xlsx
@@ -434,78 +434,56 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg.</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia.</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Head Ht.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Style</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Tensile Strength, psi</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Specifications Met</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr"/>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>00-90</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Drive</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
@@ -513,79 +491,67 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1/8"</t>
+          <t>Lg.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Threading</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.090"</t>
+          <t>HeadDia.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.036"</t>
+          <t>Head Ht.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Torx Plus</t>
+          <t>Style</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>IP2, T2</t>
+          <t>Size</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>70,000</t>
+          <t>Tensile Strength, psi</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>Specifications Met</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>96710A050</t>
-        </is>
-      </c>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>$14.89</t>
+          <t>Pkg.</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>1/8"</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -630,15 +596,19 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>96710A054</t>
+          <t>96710A050</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>15.00</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr"/>
+          <t>$14.89</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>00-90</t>
+        </is>
+      </c>
       <c r="M4" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -648,7 +618,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -693,15 +663,19 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>96710A058</t>
+          <t>96710A054</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>15.11</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
+          <t>15.00</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>00-90</t>
+        </is>
+      </c>
       <c r="M5" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -711,20 +685,64 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0-80</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+          <t>1/4"</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0.090"</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.036"</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Torx Plus</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>IP2, T2</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>96710A058</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>15.11</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>00-90</t>
+        </is>
+      </c>
       <c r="M6" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -787,7 +805,11 @@
           <t>9.36</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>0-80</t>
+        </is>
+      </c>
       <c r="M7" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -850,7 +872,11 @@
           <t>9.60</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>0-80</t>
+        </is>
+      </c>
       <c r="M8" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -913,7 +939,11 @@
           <t>9.67</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>0-80</t>
+        </is>
+      </c>
       <c r="M9" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -976,7 +1006,11 @@
           <t>16.76</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>0-80</t>
+        </is>
+      </c>
       <c r="M10" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
